--- a/packages/excel2js/in/C程序字.xlsx
+++ b/packages/excel2js/in/C程序字.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="GameWorld" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>程序字id</t>
   </si>
@@ -37,6 +37,24 @@
   </si>
   <si>
     <t>连接超时</t>
+  </si>
+  <si>
+    <t>dialog_1_1</t>
+  </si>
+  <si>
+    <t>你想干嘛</t>
+  </si>
+  <si>
+    <t>dialog_1_2</t>
+  </si>
+  <si>
+    <t>你猜猜咯</t>
+  </si>
+  <si>
+    <t>dialog_1_3</t>
+  </si>
+  <si>
+    <t>什么鬼</t>
   </si>
   <si>
     <t xml:space="preserve">场景表（Map） </t>
@@ -69,9 +87,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -97,21 +115,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -120,36 +123,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,6 +136,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -170,9 +151,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,44 +257,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -255,187 +273,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,21 +478,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,37 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,12 +538,47 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -569,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,133 +599,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1075,13 +1093,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="47.375" style="4" customWidth="1"/>
     <col min="2" max="2" width="54.5" style="4" customWidth="1"/>
@@ -1118,6 +1136,30 @@
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1140,7 +1182,7 @@
   <sheetData>
     <row r="1" ht="31.5" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1148,12 +1190,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -1163,27 +1205,27 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1">

--- a/packages/excel2js/in/C程序字.xlsx
+++ b/packages/excel2js/in/C程序字.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="GameWorld" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>程序字id</t>
   </si>
@@ -55,6 +55,42 @@
   </si>
   <si>
     <t>什么鬼</t>
+  </si>
+  <si>
+    <t>card_type_1</t>
+  </si>
+  <si>
+    <t>黑</t>
+  </si>
+  <si>
+    <t>card_type_2</t>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>card_type_3</t>
+  </si>
+  <si>
+    <t>梅</t>
+  </si>
+  <si>
+    <t>card_type_4</t>
+  </si>
+  <si>
+    <t>方</t>
+  </si>
+  <si>
+    <t>card_type_5</t>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>card_type_6</t>
+  </si>
+  <si>
+    <t>大</t>
   </si>
   <si>
     <t xml:space="preserve">场景表（Map） </t>
@@ -87,8 +123,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -129,6 +165,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -138,51 +182,82 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,48 +280,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,19 +309,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,6 +411,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -309,25 +447,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,54 +477,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -394,66 +490,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,6 +514,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,17 +557,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,29 +585,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,6 +606,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -587,10 +623,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,130 +635,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1093,13 +1129,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="47.375" style="4" customWidth="1"/>
     <col min="2" max="2" width="54.5" style="4" customWidth="1"/>
@@ -1160,6 +1196,54 @@
       </c>
       <c r="B7" s="6" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:2">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:2">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:2">
+      <c r="A13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1182,7 +1266,7 @@
   <sheetData>
     <row r="1" ht="31.5" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1190,12 +1274,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -1205,27 +1289,27 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:1">

--- a/packages/excel2js/in/C程序字.xlsx
+++ b/packages/excel2js/in/C程序字.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="19095" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="GameWorld" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>程序字id</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>大</t>
+  </si>
+  <si>
+    <t>msgPrompt_pass</t>
+  </si>
+  <si>
+    <t>过</t>
+  </si>
+  <si>
+    <t>msgPrompt_enemyPower</t>
+  </si>
+  <si>
+    <t>敌方出战权</t>
   </si>
   <si>
     <t xml:space="preserve">场景表（Map） </t>
@@ -123,9 +135,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -151,22 +163,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,54 +199,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,14 +223,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,8 +252,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -288,7 +300,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,187 +321,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,16 +531,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,13 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,17 +608,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -635,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,10 +1141,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="1"/>
@@ -1244,6 +1256,22 @@
       </c>
       <c r="B13" s="4" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:2">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1266,7 +1294,7 @@
   <sheetData>
     <row r="1" ht="31.5" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1274,12 +1302,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -1289,27 +1317,27 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:1">

--- a/packages/excel2js/in/C程序字.xlsx
+++ b/packages/excel2js/in/C程序字.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="GameWorld" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>程序字id</t>
   </si>
@@ -103,6 +103,24 @@
   </si>
   <si>
     <t>敌方出战权</t>
+  </si>
+  <si>
+    <t>ViewFight_minePower</t>
+  </si>
+  <si>
+    <t>我权</t>
+  </si>
+  <si>
+    <t>ViewFight_enemyPower</t>
+  </si>
+  <si>
+    <t>敌权</t>
+  </si>
+  <si>
+    <t>SetLabelWorld_StartGame</t>
+  </si>
+  <si>
+    <t>开始游戏</t>
   </si>
   <si>
     <t xml:space="preserve">场景表（Map） </t>
@@ -134,9 +152,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -163,29 +181,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,7 +233,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,6 +279,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -231,22 +296,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,53 +319,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,37 +339,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,25 +489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,115 +507,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,17 +548,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,6 +562,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,17 +596,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,35 +645,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -635,145 +653,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1141,10 +1159,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="1"/>
@@ -1272,6 +1290,30 @@
       </c>
       <c r="B15" s="4" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:2">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:2">
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:2">
+      <c r="A18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1294,7 +1336,7 @@
   <sheetData>
     <row r="1" ht="31.5" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1302,12 +1344,12 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -1317,27 +1359,27 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:1">
